--- a/02_Formulas_Function/3_Logical_Functions.xlsx
+++ b/02_Formulas_Function/3_Logical_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\data analytics\02_Formulas_Function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCFFFCF-ECC1-4C11-996E-F327FCF00E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CCE51F-9D9F-42D8-8A77-F51BE11E2B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
@@ -2778,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18E6D21-2229-4383-8B9A-431F68FAE08C}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
